--- a/00.data/00.cds/cds_monthly_avg_emerging_scaled.xlsx
+++ b/00.data/00.cds/cds_monthly_avg_emerging_scaled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F3189218\OneDrive - Banco do Brasil S.A\Documentos\Codigos\Mundial\incerteza_risco_mundial\00.data\00.cds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94323B00-9BD9-4FF5-9F93-13099078CC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D8928A-4010-4030-A043-F5FEA0AAC4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="-180" windowWidth="19560" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -213,7 +213,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2019,7 +2019,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6254-4FB7-94F1-CC8FC3511E9C}"/>
+              <c16:uniqueId val="{00000001-DC21-4B4C-AD0D-932BBA904963}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3884,7 +3884,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-6254-4FB7-94F1-CC8FC3511E9C}"/>
+              <c16:uniqueId val="{0000000B-DC21-4B4C-AD0D-932BBA904963}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3897,8 +3897,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="4160848"/>
-        <c:axId val="4144528"/>
+        <c:axId val="526619631"/>
+        <c:axId val="526618191"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -5779,7 +5779,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-6254-4FB7-94F1-CC8FC3511E9C}"/>
+                    <c16:uniqueId val="{00000000-DC21-4B4C-AD0D-932BBA904963}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -7581,7 +7581,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-6254-4FB7-94F1-CC8FC3511E9C}"/>
+                    <c16:uniqueId val="{00000002-DC21-4B4C-AD0D-932BBA904963}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -9383,7 +9383,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-6254-4FB7-94F1-CC8FC3511E9C}"/>
+                    <c16:uniqueId val="{00000003-DC21-4B4C-AD0D-932BBA904963}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -11185,7 +11185,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-6254-4FB7-94F1-CC8FC3511E9C}"/>
+                    <c16:uniqueId val="{00000004-DC21-4B4C-AD0D-932BBA904963}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -12810,7 +12810,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-6254-4FB7-94F1-CC8FC3511E9C}"/>
+                    <c16:uniqueId val="{00000005-DC21-4B4C-AD0D-932BBA904963}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -14659,7 +14659,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-6254-4FB7-94F1-CC8FC3511E9C}"/>
+                    <c16:uniqueId val="{00000006-DC21-4B4C-AD0D-932BBA904963}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -16436,7 +16436,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-6254-4FB7-94F1-CC8FC3511E9C}"/>
+                    <c16:uniqueId val="{00000007-DC21-4B4C-AD0D-932BBA904963}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -18267,7 +18267,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-6254-4FB7-94F1-CC8FC3511E9C}"/>
+                    <c16:uniqueId val="{00000008-DC21-4B4C-AD0D-932BBA904963}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -19999,7 +19999,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000009-6254-4FB7-94F1-CC8FC3511E9C}"/>
+                    <c16:uniqueId val="{00000009-DC21-4B4C-AD0D-932BBA904963}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -21884,7 +21884,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000A-6254-4FB7-94F1-CC8FC3511E9C}"/>
+                    <c16:uniqueId val="{0000000A-DC21-4B4C-AD0D-932BBA904963}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -21893,14 +21893,14 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="4160848"/>
+        <c:axId val="526619631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="44105"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd\ hh:mm:ss" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-416]mmm/yy;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -21937,17 +21937,18 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4144528"/>
+        <c:crossAx val="526618191"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="4144528"/>
+        <c:axId val="526618191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.5"/>
+          <c:max val="1.6"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -21996,7 +21997,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4160848"/>
+        <c:crossAx val="526619631"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22622,10 +22623,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5D8AC68C-DF66-45B2-A0A5-7592E79BBBA7}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{21F36D54-61EC-415F-BFB1-45B9F14187F5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -22639,13 +22640,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="4646341" cy="3035610"/>
+    <xdr:ext cx="9299677" cy="6073468"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BDF2483-F22E-A6D4-8EDD-4BAC7D778AC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B24F6B-C289-F42D-4B77-B5E3F7EE43DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22957,13 +22958,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView topLeftCell="A285" workbookViewId="0">
+    <sheetView topLeftCell="A174" workbookViewId="0">
       <selection sqref="A1:M303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
